--- a/review_points_mayphoowai.xlsx
+++ b/review_points_mayphoowai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>1) better if you put the session username here</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
   <si>
     <t>Design</t>
@@ -153,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -172,8 +175,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,15 +193,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,9 +235,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,22 +267,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -257,14 +291,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,52 +319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,19 +353,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,49 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,109 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,9 +663,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,7 +715,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,21 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,17 +752,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -778,148 +763,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2284,8 +2269,8 @@
   <sheetPr/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2591,7 +2576,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
@@ -2613,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>25</v>
@@ -2622,7 +2607,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2664,7 +2649,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2764,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2778,21 +2763,21 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -2802,22 +2787,22 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2828,25 +2813,25 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/review_points_mayphoowai.xlsx
+++ b/review_points_mayphoowai.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Head" sheetId="1" r:id="rId1"/>
     <sheet name="Tutorial 4" sheetId="2" r:id="rId2"/>
-    <sheet name="Ref." sheetId="3" r:id="rId3"/>
+    <sheet name="Tutorial 5" sheetId="4" r:id="rId3"/>
+    <sheet name="Tutorial 6" sheetId="5" r:id="rId4"/>
+    <sheet name="Tutorial 7" sheetId="6" r:id="rId5"/>
+    <sheet name="Tutorial 8" sheetId="7" r:id="rId6"/>
+    <sheet name="Tutorial 9" sheetId="8" r:id="rId7"/>
+    <sheet name="Ref." sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>№</t>
   </si>
@@ -103,16 +108,82 @@
     <t>1) better if you put the session username here</t>
   </si>
   <si>
-    <t>skip</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
     <t>1) You can remove register link</t>
   </si>
   <si>
-    <t>1) No need to use exit() as the the header will redirect the page and the exit function will not even be executed</t>
+    <t>Empty array</t>
+  </si>
+  <si>
+    <t>1) try not to print the emply array</t>
+  </si>
+  <si>
+    <t>Composer</t>
+  </si>
+  <si>
+    <t>1) Use composer for installing libraries</t>
+  </si>
+  <si>
+    <t>1) no need html tags if the function is for action only</t>
+  </si>
+  <si>
+    <t>1) 4 spaces inside if</t>
+  </si>
+  <si>
+    <t>1) 4 spaces inside else</t>
+  </si>
+  <si>
+    <t>can't download phpqrcode library using composer</t>
+  </si>
+  <si>
+    <t>1) Too many spaces</t>
+  </si>
+  <si>
+    <t>Submit button type</t>
+  </si>
+  <si>
+    <t>1) button type submit</t>
+  </si>
+  <si>
+    <t>img alt</t>
+  </si>
+  <si>
+    <t>1) put img alt</t>
+  </si>
+  <si>
+    <t>unneccessary div</t>
+  </si>
+  <si>
+    <t>1) remove unneccessary /div in generate.php</t>
+  </si>
+  <si>
+    <t>Separate folders</t>
+  </si>
+  <si>
+    <t>1) It is more preferable to separate the action file with the views. Like you did in tutoiral4</t>
+  </si>
+  <si>
+    <t>Unused variables</t>
+  </si>
+  <si>
+    <t>1) no point of assigning th $row value to variables if you are not going to use it. As far as I see, $row['firstname'] is used to echo the data instead of those assigned variables</t>
+  </si>
+  <si>
+    <t>show old data in input field</t>
+  </si>
+  <si>
+    <t>1) not the best practice to put the input inside p tag</t>
+  </si>
+  <si>
+    <t>1) No need to use html tags if it is not for views</t>
+  </si>
+  <si>
+    <t>1) Better to find averge salary with group by position</t>
+  </si>
+  <si>
+    <t>1) Pass this kind of script data from head instead of inside body</t>
   </si>
   <si>
     <t>エラータイプ</t>
@@ -156,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,6 +244,35 @@
       <color theme="1"/>
       <name val="Meiryo"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -190,25 +290,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,15 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -244,33 +323,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,8 +338,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,14 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,8 +389,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,7 +418,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +550,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,133 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,10 +740,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -689,8 +764,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -707,15 +784,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +821,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -763,148 +840,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,36 +1610,1335 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>116417</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>592667</xdr:rowOff>
+      <xdr:colOff>328083</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>321699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>681238</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1668857</xdr:rowOff>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2361762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5993130" y="13485495"/>
-          <a:ext cx="2621915" cy="1076325"/>
+          <a:off x="6204585" y="740410"/>
+          <a:ext cx="1972945" cy="2040255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="2186305"/>
+          <a:ext cx="759460" cy="423545"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="3417570"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="4303395"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>464101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2067643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5939790" y="882650"/>
+          <a:ext cx="4004310" cy="1604010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1248702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6120130" y="3141980"/>
+          <a:ext cx="3265805" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="5665470"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304492</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>328083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1154511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181090" y="4631055"/>
+          <a:ext cx="3484245" cy="826770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="7027545"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>402168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120439</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1121834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6289675" y="6067425"/>
+          <a:ext cx="3136265" cy="719455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="2219325"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243419</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>275155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656169</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1262453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6120130" y="1170305"/>
+          <a:ext cx="3155950" cy="987425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="3543300"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1003669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6003925" y="2695575"/>
+          <a:ext cx="4400550" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="3543300"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="4867275"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264584</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>539750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46251</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>834988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6141085" y="4083050"/>
+          <a:ext cx="2524760" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="4867275"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="4867275"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="6191250"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>592667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>183619</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>840286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5940425" y="5459730"/>
+          <a:ext cx="4234815" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="2681605"/>
+          <a:ext cx="759460" cy="213995"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>550334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269429</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1940810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6014085" y="1464310"/>
+          <a:ext cx="3561080" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1767417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6384925" y="4057650"/>
+          <a:ext cx="759460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>306917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>506380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1040250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6024880" y="3202305"/>
+          <a:ext cx="4472940" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>433919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71532</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2021419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5950585" y="852805"/>
+          <a:ext cx="4112260" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>437092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106167</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>751378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5993130" y="4485005"/>
+          <a:ext cx="5781040" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2051526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>338964</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3547226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5950585" y="2470150"/>
+          <a:ext cx="3693795" cy="1496060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>338666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>591035</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>738666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6014085" y="5405755"/>
+          <a:ext cx="4568190" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2267,13 +3643,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:U7"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
@@ -2576,7 +3952,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
@@ -2598,7 +3974,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>25</v>
@@ -2607,7 +3983,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2627,50 +4003,8 @@
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
     </row>
-    <row r="9" ht="175.5" customHeight="1" spans="1:24">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
-        <v>44487</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="24">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="P1:U1"/>
@@ -2695,24 +4029,21 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="P9:U9"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
       <formula1>Ref.!$A$2:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8">
       <formula1>Ref.!$D$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
       <formula1>Ref.!$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
       <formula1>Ref.!$C$2:$C$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W8">
       <formula1>Ref.!$E$2:$E$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -2726,10 +4057,1282 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" ht="37.5" customHeight="1" spans="1:24">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" ht="107.25" customHeight="1" spans="1:24">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" ht="107.25" customHeight="1" spans="1:24">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" ht="107.25" customHeight="1" spans="1:24">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="P5:U5"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W5">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="37.5" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" ht="104.25" customHeight="1" spans="1:24">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" ht="104.25" customHeight="1" spans="1:24">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" ht="104.25" customHeight="1" spans="1:24">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" ht="104.25" customHeight="1" spans="1:24">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="P6:U6"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" ht="156" customHeight="1" spans="1:24">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" ht="91.5" customHeight="1" spans="1:24">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="285.75" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" ht="80.25" customHeight="1" spans="1:24">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" ht="80.25" customHeight="1" spans="1:24">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J21" sqref="J21:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2749,7 +5352,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2763,21 +5366,21 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -2787,22 +5390,22 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2813,25 +5416,25 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/review_points_mayphoowai.xlsx
+++ b/review_points_mayphoowai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Head" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,16 @@
     <sheet name="Tutorial 7" sheetId="6" r:id="rId5"/>
     <sheet name="Tutorial 8" sheetId="7" r:id="rId6"/>
     <sheet name="Tutorial 9" sheetId="8" r:id="rId7"/>
-    <sheet name="Ref." sheetId="3" r:id="rId8"/>
+    <sheet name="Tutorial 10" sheetId="9" r:id="rId8"/>
+    <sheet name="Sample Task List" sheetId="10" r:id="rId9"/>
+    <sheet name="Ref." sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -184,6 +186,27 @@
   </si>
   <si>
     <t>1) Pass this kind of script data from head instead of inside body</t>
+  </si>
+  <si>
+    <t>Unset session</t>
+  </si>
+  <si>
+    <t>1) you have to unset the session when logout</t>
+  </si>
+  <si>
+    <t>2 spaces</t>
+  </si>
+  <si>
+    <t>1) use indent of 2 spaces for blade.php</t>
+  </si>
+  <si>
+    <t>changed to 2spaces.</t>
+  </si>
+  <si>
+    <t>26/10/2021</t>
+  </si>
+  <si>
+    <t>MayPhooWai</t>
   </si>
   <si>
     <t>エラータイプ</t>
@@ -227,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -254,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +290,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +331,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,14 +353,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -323,23 +361,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -354,7 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,42 +414,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,7 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +459,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,85 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,31 +609,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,56 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -818,11 +803,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,20 +850,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,130 +893,130 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3640,6 +3675,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -4254,7 +4481,7 @@
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D3" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -5097,7 +5324,7 @@
   <sheetPr/>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="E2" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="E2" workbookViewId="0">
       <selection activeCell="P3" sqref="P3:U3"/>
     </sheetView>
   </sheetViews>
@@ -5329,189 +5556,301 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J22"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44493</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="14.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:24">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="X1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:24">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44495</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="W2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="X2" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Ref.!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>Ref.!$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>Ref.!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>Ref.!$C$2:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+      <formula1>Ref.!$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/review_points_mayphoowai.xlsx
+++ b/review_points_mayphoowai.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>changed to 2spaces.</t>
-  </si>
-  <si>
-    <t>26/10/2021</t>
   </si>
   <si>
     <t>MayPhooWai</t>
@@ -251,9 +248,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -269,10 +266,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,21 +282,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,33 +319,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,17 +349,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,7 +374,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,16 +416,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,43 +450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,61 +510,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,19 +576,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,32 +758,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,8 +811,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,19 +850,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,152 +860,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1068,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3252,420 +3240,420 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="28"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="29"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="29"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="29"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="29"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="29"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="29"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="29"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="29"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="30"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3701,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -3718,18 +3706,18 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -3739,22 +3727,22 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3765,29 +3753,29 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3980,9 +3968,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -4022,9 +4010,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
     <row r="4" ht="198.6" customHeight="1" spans="1:24">
       <c r="A4" s="9">
@@ -4062,9 +4050,9 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" ht="198.6" customHeight="1" spans="1:24">
       <c r="A5" s="9">
@@ -4102,9 +4090,9 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
     <row r="6" ht="175.5" customHeight="1" spans="1:24">
       <c r="A6" s="9">
@@ -4144,9 +4132,9 @@
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
     </row>
     <row r="7" ht="175.5" customHeight="1" spans="1:24">
       <c r="A7" s="9">
@@ -4186,9 +4174,9 @@
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
     </row>
     <row r="8" ht="175.5" customHeight="1" spans="1:24">
       <c r="A8" s="9">
@@ -4226,9 +4214,9 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4394,9 +4382,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" ht="37.5" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -4436,9 +4424,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4587,9 +4575,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" ht="107.25" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -4627,9 +4615,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
     <row r="4" ht="107.25" customHeight="1" spans="1:24">
       <c r="A4" s="9">
@@ -4667,9 +4655,9 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" ht="107.25" customHeight="1" spans="1:24">
       <c r="A5" s="9">
@@ -4707,9 +4695,9 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4866,9 +4854,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" ht="104.25" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -4906,9 +4894,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
     <row r="4" ht="104.25" customHeight="1" spans="1:24">
       <c r="A4" s="9">
@@ -4948,9 +4936,9 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" ht="104.25" customHeight="1" spans="1:24">
       <c r="A5" s="9">
@@ -4990,9 +4978,9 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
     <row r="6" ht="104.25" customHeight="1" spans="1:24">
       <c r="A6" s="9">
@@ -5032,9 +5020,9 @@
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5194,9 +5182,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" ht="156" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -5236,9 +5224,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
     <row r="4" ht="91.5" customHeight="1" spans="1:24">
       <c r="A4" s="9">
@@ -5276,9 +5264,9 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5430,9 +5418,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" ht="80.25" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -5470,9 +5458,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
     </row>
     <row r="4" ht="80.25" customHeight="1" spans="1:24">
       <c r="A4" s="9">
@@ -5510,9 +5498,9 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5666,9 +5654,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5708,7 +5696,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5815,13 +5803,13 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="21">
+        <v>44495</v>
+      </c>
+      <c r="W2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="21"/>
+      <c r="X2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
